--- a/To Do/Vanlessen Jeroen.xlsx
+++ b/To Do/Vanlessen Jeroen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -22,9 +22,6 @@
     <t>1 = hoog</t>
   </si>
   <si>
-    <t>100 = laag</t>
-  </si>
-  <si>
     <t>openstaande bug</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>2 uur</t>
   </si>
   <si>
-    <t>Jeroen Vanlessen, Steven Verheyen</t>
-  </si>
-  <si>
     <t>GIT</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>1 uur</t>
   </si>
   <si>
-    <t>Jeroen Vanlessen</t>
-  </si>
-  <si>
     <t>Logo maken</t>
   </si>
   <si>
@@ -113,6 +104,39 @@
   </si>
   <si>
     <t>LOGO</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>5 = laag</t>
+  </si>
+  <si>
+    <t>Home scherm maken</t>
+  </si>
+  <si>
+    <t>Hibernate nakijken</t>
+  </si>
+  <si>
+    <t>XAMPP problemen oplossen</t>
+  </si>
+  <si>
+    <t>Jeroen</t>
+  </si>
+  <si>
+    <t>Jeroen, Steven</t>
+  </si>
+  <si>
+    <t>XAMPP</t>
+  </si>
+  <si>
+    <t>SQL trigger taak</t>
+  </si>
+  <si>
+    <t>HTML 5 tutorials</t>
+  </si>
+  <si>
+    <t>5 uur</t>
   </si>
 </sst>
 </file>
@@ -451,16 +475,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,51 +874,51 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="1" max="1" width="68.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -905,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
@@ -919,13 +943,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D3" s="23">
         <v>41355</v>
@@ -934,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
@@ -948,13 +972,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="23">
         <v>41356</v>
@@ -963,27 +987,27 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="23">
         <v>41354</v>
@@ -992,59 +1016,89 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="I6" s="11">
         <f>COUNTIFS(G2:G38,"Not Started")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="9">
         <f>I6/$I$10</f>
-        <v>0</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="12">
         <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="10">
         <f>COUNTIFS(G2:G38,"Fixed")</f>
@@ -1055,44 +1109,80 @@
         <v>0</v>
       </c>
       <c r="K8" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="23">
+        <v>41372</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K9" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="23">
+        <v>41370</v>
+      </c>
+      <c r="E10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1111,7 +1201,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1122,7 +1212,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1133,10 +1223,10 @@
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1147,10 +1237,10 @@
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">

--- a/To Do/Vanlessen Jeroen.xlsx
+++ b/To Do/Vanlessen Jeroen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -133,10 +133,10 @@
     <t>SQL trigger taak</t>
   </si>
   <si>
-    <t>HTML 5 tutorials</t>
-  </si>
-  <si>
     <t>5 uur</t>
+  </si>
+  <si>
+    <t>HTML 5 &amp; JSP tutorials</t>
   </si>
 </sst>
 </file>
@@ -475,10 +475,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -874,7 +874,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="23">
         <v>41355</v>
@@ -1047,11 +1047,11 @@
       </c>
       <c r="I6" s="11">
         <f>COUNTIFS(G2:G38,"Not Started")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="9">
         <f>I6/$I$10</f>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>2</v>
@@ -1061,7 +1061,9 @@
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="E7" s="1">
         <v>1</v>
@@ -1070,18 +1072,18 @@
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="12">
         <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>13</v>
@@ -1151,7 +1153,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>

--- a/To Do/Vanlessen Jeroen.xlsx
+++ b/To Do/Vanlessen Jeroen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -478,13 +478,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,7 +874,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,9 +1030,14 @@
         <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="D6" s="23">
+        <v>41377</v>
+      </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
@@ -1040,7 +1045,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>30</v>
@@ -1079,11 +1084,11 @@
       </c>
       <c r="I7" s="12">
         <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>0.22222222222222221</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>13</v>
@@ -1141,11 +1146,11 @@
       </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.66666666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>

--- a/To Do/Vanlessen Jeroen.xlsx
+++ b/To Do/Vanlessen Jeroen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>HTML 5 &amp; JSP tutorials</t>
+  </si>
+  <si>
+    <t>7 uur</t>
   </si>
 </sst>
 </file>
@@ -874,7 +877,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1072,9 @@
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>

--- a/To Do/Vanlessen Jeroen.xlsx
+++ b/To Do/Vanlessen Jeroen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -139,7 +139,13 @@
     <t>HTML 5 &amp; JSP tutorials</t>
   </si>
   <si>
-    <t>7 uur</t>
+    <t>8 uur</t>
+  </si>
+  <si>
+    <t>2,5 uur</t>
+  </si>
+  <si>
+    <t>3 uur</t>
   </si>
 </sst>
 </file>
@@ -481,13 +487,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,7 +883,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D6" s="23">
         <v>41377</v>
@@ -1075,6 +1081,9 @@
       <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="D7" s="23">
+        <v>41381</v>
+      </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -1082,18 +1091,18 @@
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="12">
         <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>13</v>
@@ -1132,7 +1141,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D9" s="23">
         <v>41372</v>
@@ -1151,11 +1160,11 @@
       </c>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.77777777777777779</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>3</v>
